--- a/ERPReports/ERPReports/Areas/Reports/Templates/LSP_Rpt_DM_SlowMovingAnalysisReport.xlsx
+++ b/ERPReports/ERPReports/Areas/Reports/Templates/LSP_Rpt_DM_SlowMovingAnalysisReport.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23901"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCEE0528-232D-400D-A802-44BE78ECF845}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="285" yWindow="135" windowWidth="16140" windowHeight="9990"/>
+    <workbookView xWindow="28680" yWindow="-2700" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SlowMovingAnalysisReport" sheetId="1" r:id="rId1"/>
@@ -12,7 +13,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">SlowMovingAnalysisReport!$1:$1</definedName>
   </definedNames>
-  <calcPr calcId="80000" fullCalcOnLoad="1"/>
+  <calcPr calcId="80000"/>
   <fileRecoveryPr autoRecover="0"/>
 </workbook>
 </file>
@@ -75,10 +76,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="180" formatCode="[$-10409]#,##0.0000;\(#,##0.0000\)"/>
-    <numFmt numFmtId="181" formatCode="[$-10409]#,##0.00;\(#,##0.00\)"/>
+    <numFmt numFmtId="164" formatCode="[$-10409]#,##0.0000;\(#,##0.0000\)"/>
+    <numFmt numFmtId="165" formatCode="[$-10409]#,##0.00;\(#,##0.00\)"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -91,20 +92,20 @@
       <sz val="14"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Times New Roman"/>
-      <charset val="1"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Times New Roman"/>
-      <charset val="1"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -222,7 +223,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -236,11 +237,11 @@
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
@@ -275,6 +276,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -285,6 +293,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -581,21 +592,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" customWidth="1"/>
-    <col min="2" max="2" width="37.42578125" customWidth="1"/>
+    <col min="1" max="1" width="33.28515625" style="15" customWidth="1"/>
+    <col min="2" max="2" width="46.140625" style="15" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" customWidth="1"/>
     <col min="6" max="8" width="13.7109375" customWidth="1"/>
     <col min="9" max="9" width="13.42578125" customWidth="1"/>
     <col min="10" max="13" width="13.7109375" customWidth="1"/>
@@ -606,28 +617,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
     </row>
     <row r="2" spans="1:16" ht="19.350000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
